--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_16_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_16_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33843.38977940267</v>
+        <v>6734834.566101137</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33843.38977940267</v>
+        <v>6734834.566101137</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>18998.05640234889</v>
+        <v>1146088.991919103</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18998.05640234889</v>
+        <v>1146088.991919103</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1266198182.744483</v>
+        <v>51499114.19129068</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11552.04261681007</v>
+        <v>1241599.47665391</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21881.09546078907</v>
+        <v>2280585.5349283</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32210.14830476806</v>
+        <v>3319571.593202692</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>43079.51264830866</v>
+        <v>4323990.96780903</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>53948.87699184924</v>
+        <v>5328410.342415368</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>64818.24133538983</v>
+        <v>6332829.717021704</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>75687.60567893041</v>
+        <v>7337249.091628038</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>86556.97002247101</v>
+        <v>8341668.466234372</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>97233.58056898671</v>
+        <v>9345641.794132939</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>107938.7002064071</v>
+        <v>10355288.4311229</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>118643.8198438317</v>
+        <v>11364935.06811254</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>129348.9394812561</v>
+        <v>12374581.70510219</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>140054.0591186794</v>
+        <v>13384228.34209184</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>150759.1787561004</v>
+        <v>14393874.97908169</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>161464.2983935252</v>
+        <v>15403521.61607118</v>
       </c>
     </row>
   </sheetData>
